--- a/Parcial 1/Clases/02 aleatorios y funciones logicas.xlsx
+++ b/Parcial 1/Clases/02 aleatorios y funciones logicas.xlsx
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -749,7 +749,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <f ca="1">RAND()</f>
-        <v>0.29536578671592073</v>
+        <v>0.92434214007755211</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -761,7 +761,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -899,171 +899,171 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <f ca="1">RAND()*($E$18-$G$18)+$G$18</f>
-        <v>7.8499392721917935</v>
+        <v>9.2273859703378953</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:H23" ca="1" si="0">RAND()*($E$18-$G$18)+$G$18</f>
-        <v>9.4568092936885844</v>
+        <v>7.624444882804756</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5286210376095184</v>
+        <v>5.9491216449857509</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0422571243260652</v>
+        <v>1.3265455890999238</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2.238707964302157</v>
+        <v>1.0899609968244981</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9922129519405605</v>
+        <v>1.0291290040912067</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2831238040833348</v>
+        <v>3.56763018101908</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3738709926754016</v>
+        <v>1.107926186768335</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" ref="A20:A23" ca="1" si="1">RAND()*($E$18-$G$18)+$G$18</f>
-        <v>8.9819705095530438</v>
+        <v>4.3123534180431022</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5045957966041641</v>
+        <v>1.9856301231646398</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7313109910644027</v>
+        <v>4.2755971231410737</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5250320487194635</v>
+        <v>6.9164446851181989</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9825858291859859</v>
+        <v>4.3893118613196993</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8859272214300322</v>
+        <v>0.89014096348390126</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5393667653474488</v>
+        <v>6.9919760777356741</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8101863802419693</v>
+        <v>7.7815773453741146</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6712729251119054</v>
+        <v>3.7857566106982503</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12810623155693435</v>
+        <v>3.1249115181174911</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3978617410597387</v>
+        <v>7.9141356196686736</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1477021454636125</v>
+        <v>3.3773601307057284</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>9.212569531505947</v>
+        <v>9.3225816706005755</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9975263012058981</v>
+        <v>2.2587371031182268</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1506723725086019</v>
+        <v>9.5967939066195473</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8721636410443603</v>
+        <v>6.9838721842669553</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8413714022602363</v>
+        <v>4.3395950307165219</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4555484482190684</v>
+        <v>4.4292775301309497</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1070374835922916</v>
+        <v>6.5601672439675065</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8065378131884851</v>
+        <v>3.0664644230380844E-2</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0206694029989203</v>
+        <v>5.4821727656099473</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9435545602185034</v>
+        <v>2.6074238908844505</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64176202352172673</v>
+        <v>2.911751210055705</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4604737812505366</v>
+        <v>1.6617610695553182</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.593132921400886</v>
+        <v>4.9658530302650661E-2</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2302531979515168</v>
+        <v>9.8385419050389586</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6056157280042349</v>
+        <v>4.5362160175214132</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>2.353738126847265</v>
+        <v>3.7212954983760476</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1.172054090054317</v>
+        <v>7.7793209479330026</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0736512150068895</v>
+        <v>7.2729409172777126</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87563313892149353</v>
+        <v>4.3144789612167962</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52745643226241157</v>
+        <v>1.9480875676059402</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -1074,103 +1074,103 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <f ca="1">ROUND(RAND()*(0-100)+100,2)</f>
-        <v>80.28</v>
+        <v>54.78</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26:H28" ca="1" si="2">ROUND(RAND()*(0-100)+100,2)</f>
-        <v>15.43</v>
+        <v>17.37</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>47.76</v>
+        <v>32.61</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
+        <v>35.92</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>84.74</v>
+        <v>58.92</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>17.59</v>
+        <v>93.79</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>86.69</v>
+        <v>87.36</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>94.47</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <f t="shared" ref="A27:A28" ca="1" si="3">ROUND(RAND()*(0-100)+100,2)</f>
-        <v>50.73</v>
+        <v>9.86</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>59.25</v>
+        <v>62.16</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>90.47</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>22.13</v>
+        <v>61.07</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>99.25</v>
+        <v>41.4</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>59.69</v>
+        <v>86.93</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>73.06</v>
+        <v>6.47</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>66.83</v>
+        <v>53.37</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <f t="shared" ca="1" si="3"/>
-        <v>68.680000000000007</v>
+        <v>38.71</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>87.35</v>
+        <v>23.11</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>8.43</v>
+        <v>99.8</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47</v>
+        <v>19.59</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>89.62</v>
+        <v>26.14</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>27.36</v>
+        <v>12.93</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>36.96</v>
+        <v>37.08</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>81.69</v>
+        <v>49.49</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1255,31 +1255,31 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A35" ca="1" si="0">RANDBETWEEN(12000,16000)</f>
-        <v>13283</v>
+        <v>15681</v>
       </c>
       <c r="B4" s="4">
         <f ca="1">ROUND(RAND()*(0-10)+10,1)</f>
-        <v>4.9000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="B4:D23" ca="1" si="1">ROUND(RAND()*(0-10)+10,1)</f>
-        <v>8.3000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E35" ca="1" si="2">ROUND(RAND()*(5-10)+10,1)</f>
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F35" ca="1" si="3">AVERAGE(B4:E4)</f>
-        <v>5.9250000000000007</v>
+        <v>6.9249999999999998</v>
       </c>
       <c r="G4" s="4">
         <f ca="1">ROUND(F4,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="4" t="str">
         <f ca="1">IF(G4&lt;=5,"NA","APROBADO")</f>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I4" s="4">
         <f ca="1">IF(G4=10,G4,IF(G4&gt;=8,G4+0.5,IF(G4&gt;=6,G4,G4-0.5)))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="4" t="str">
         <f t="shared" ref="J4:J35" ca="1" si="4">IF(AND(G4&gt;=6,G4&lt;=8),"SALISTE MAS O MENOS",IF(G4&gt;=9,"SOBRESALIENTE","PESIMO"))</f>
@@ -1297,129 +1297,129 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14994</v>
+        <v>12259</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7249999999999996</v>
+        <v>5.375</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G68" ca="1" si="5">ROUND(F5,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ref="H5:H68" ca="1" si="6">IF(G5&lt;=5,"NA","APROBADO")</f>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" ref="I5:I68" ca="1" si="7">IF(G5=10,G5,IF(G5&gt;=8,G5+0.5,IF(G5&gt;=6,G5,G5-0.5)))</f>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J5" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M5" s="5">
         <f ca="1">COUNTIF(G4:G104,"&gt;=6")</f>
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14170</v>
+        <v>12962</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>2.4</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.45</v>
+        <v>5.875</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M6" s="5">
         <f ca="1">COUNTIF(G4:G104,"&lt;=5")</f>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12215</v>
+        <v>14182</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8</v>
+        <v>4.3249999999999993</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1444,31 +1444,31 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14578</v>
+        <v>15743</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8000000000000007</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7750000000000004</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1486,43 +1486,43 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15219</v>
+        <v>13722</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
+        <v>2.7</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>11</v>
@@ -1534,31 +1534,31 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14071</v>
+        <v>12039</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
+        <v>8.1</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.625</v>
+        <v>7.0250000000000004</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1583,31 +1583,31 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12139</v>
+        <v>15635</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4.25</v>
+        <v>3.15</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1632,80 +1632,80 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14221</v>
+        <v>15468</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>1.6</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3</v>
+        <v>3.625</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
       <c r="L12" s="8">
         <v>8</v>
       </c>
       <c r="M12" s="8">
         <f ca="1">COUNTIF(G4:G103,"=8")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12098</v>
+        <v>15366</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3250000000000002</v>
+        <v>4.2249999999999996</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1730,31 +1730,31 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12066</v>
+        <v>12670</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>5.3</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9249999999999998</v>
+        <v>6.2249999999999996</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1773,33 +1773,33 @@
       </c>
       <c r="M14" s="8">
         <f ca="1">COUNTIF(G4:G103,"=6")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14258</v>
+        <v>15938</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
+        <v>0.7</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -1822,33 +1822,33 @@
       </c>
       <c r="M15" s="9">
         <f ca="1">COUNTIF(G4:G103,"&lt;6")</f>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13050</v>
+        <v>13916</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
+        <v>9.1</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>5.4249999999999998</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -1877,15 +1877,15 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13241</v>
+        <v>15057</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>7.4</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -1893,53 +1893,53 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4.375</v>
+        <v>7.0250000000000004</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13156</v>
+        <v>12104</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -1961,31 +1961,31 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13406</v>
+        <v>13765</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
+        <v>7.5</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>8.375</v>
+        <v>6.55</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2003,27 +2003,27 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13908</v>
+        <v>14861</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6</v>
+        <v>0.7</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>4.3</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2249999999999996</v>
+        <v>4.6750000000000007</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2045,27 +2045,27 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12731</v>
+        <v>15185</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>5.8</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
-      </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <v>7.7</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5250000000000004</v>
+        <v>5.2750000000000004</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2087,31 +2087,31 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15416</v>
+        <v>15532</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.375</v>
+        <v>5.7</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="I22" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2129,111 +2129,111 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15798</v>
+        <v>15264</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8000000000000007</v>
+        <v>0.3</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3000000000000007</v>
+        <v>4.2249999999999996</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="J23" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14212</v>
+        <v>15213</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" ref="B24:D43" ca="1" si="8">ROUND(RAND()*(0-10)+10,1)</f>
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7.4</v>
+        <v>1.2</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.95</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J24" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15897</v>
+        <v>12893</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7.3</v>
+        <v>3.3</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>0.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4.95</v>
+        <v>5.0250000000000004</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2255,73 +2255,73 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13347</v>
+        <v>14654</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.1999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1999999999999993</v>
+        <v>4.8250000000000002</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13244</v>
+        <v>13610</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.7</v>
+        <v>9.5</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.75</v>
+        <v>7.25</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2339,31 +2339,31 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14293</v>
+        <v>12681</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5999999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.9</v>
+        <v>4</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.45</v>
+        <v>6.15</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2381,27 +2381,27 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13529</v>
+        <v>15610</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1000000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.6999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5499999999999989</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2423,73 +2423,73 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14245</v>
+        <v>14614</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.65</v>
+        <v>3.9250000000000003</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J30" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13316</v>
+        <v>13577</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4499999999999993</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J31" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2507,31 +2507,31 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15786</v>
+        <v>15627</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.8000000000000007</v>
+        <v>6.8</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>5.2</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
+        <v>5.55</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="J32" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2549,27 +2549,27 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14286</v>
+        <v>12660</v>
       </c>
       <c r="B33" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.8000000000000007</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>0.9</v>
+        <v>9.4</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9</v>
+        <v>6.35</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2591,19 +2591,19 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12488</v>
+        <v>14698</v>
       </c>
       <c r="B34" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.7</v>
+        <v>8.1</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5.9</v>
+        <v>8.9</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0250000000000004</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2633,283 +2633,283 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14022</v>
+        <v>15226</v>
       </c>
       <c r="B35" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4.4000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2750000000000004</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J35" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <f t="shared" ref="A36:A67" ca="1" si="9">RANDBETWEEN(12000,16000)</f>
-        <v>15716</v>
+        <v>12201</v>
       </c>
       <c r="B36" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" ref="E36:E67" ca="1" si="10">ROUND(RAND()*(5-10)+10,1)</f>
-        <v>5.8</v>
+        <v>9.5</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" ref="F36:F67" ca="1" si="11">AVERAGE(B36:E36)</f>
-        <v>4.3499999999999996</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="J36" s="4" t="str">
         <f t="shared" ref="J36:J67" ca="1" si="12">IF(AND(G36&gt;=6,G36&lt;=8),"SALISTE MAS O MENOS",IF(G36&gt;=9,"SOBRESALIENTE","PESIMO"))</f>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>14271</v>
+        <v>13812</v>
       </c>
       <c r="B37" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5.8</v>
+        <v>9.6</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.6</v>
+        <v>2.8</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.125</v>
+        <v>5.4</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J37" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>14567</v>
+        <v>15024</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1</v>
+        <v>9</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0250000000000004</v>
+        <v>6.3249999999999993</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="J38" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>15582</v>
+        <v>15654</v>
       </c>
       <c r="B39" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.6999999999999993</v>
+        <v>3.9</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1749999999999989</v>
+        <v>5.0250000000000004</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J39" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12143</v>
+        <v>13090</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5</v>
+        <v>9.9</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>8.1999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4249999999999998</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="J40" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13441</v>
+        <v>13834</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.8000000000000007</v>
+        <v>6</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1</v>
+        <v>9.9</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4.7</v>
+        <v>8.4</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>9.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.125</v>
+        <v>7.35</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="I41" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J41" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -2927,27 +2927,27 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>14354</v>
+        <v>13856</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>9.6999999999999993</v>
+        <v>10</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1249999999999991</v>
+        <v>7.2750000000000004</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -2969,111 +2969,111 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12477</v>
+        <v>12060</v>
       </c>
       <c r="B43" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4750000000000005</v>
+        <v>6.25</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J43" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12054</v>
+        <v>14378</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" ref="B44:D63" ca="1" si="13">ROUND(RAND()*(0-10)+10,1)</f>
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3.2</v>
+        <v>8.9</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>9.8000000000000007</v>
+        <v>7.7</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J44" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>15169</v>
+        <v>14011</v>
       </c>
       <c r="B45" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>5.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8.3000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.5750000000000002</v>
+        <v>6.625</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -3095,31 +3095,31 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>14905</v>
+        <v>12365</v>
       </c>
       <c r="B46" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.5249999999999995</v>
+        <v>7.8249999999999993</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="I46" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J46" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3137,31 +3137,31 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>15817</v>
+        <v>14663</v>
       </c>
       <c r="B47" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9.3000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.65</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="I47" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J47" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3179,15 +3179,15 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>14965</v>
+        <v>12618</v>
       </c>
       <c r="B48" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="13"/>
@@ -3195,141 +3195,141 @@
       </c>
       <c r="E48" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>8.9</v>
+        <v>5.9</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J48" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13961</v>
+        <v>13786</v>
       </c>
       <c r="B49" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2.5</v>
+        <v>6.9</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9.4</v>
+        <v>1.8</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.5750000000000002</v>
+        <v>4.7250000000000005</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I49" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J49" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>15077</v>
+        <v>12282</v>
       </c>
       <c r="B50" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0.1</v>
+        <v>6.6</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>3.2</v>
+        <v>6.5750000000000002</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I50" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="J50" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13028</v>
+        <v>13027</v>
       </c>
       <c r="B51" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0.1</v>
+        <v>6.4</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8.1999999999999993</v>
+        <v>5.4</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1499999999999995</v>
+        <v>6.5500000000000007</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I51" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J51" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3347,27 +3347,27 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12521</v>
+        <v>12163</v>
       </c>
       <c r="B52" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>3.9750000000000001</v>
+        <v>3.85</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -3389,31 +3389,31 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13900</v>
+        <v>14696</v>
       </c>
       <c r="B53" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>5.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4.5999999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.5250000000000004</v>
+        <v>6.4499999999999993</v>
       </c>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="I53" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J53" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3431,53 +3431,53 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13201</v>
+        <v>14871</v>
       </c>
       <c r="B54" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4.7</v>
+        <v>0.3</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8249999999999993</v>
+        <v>4.3249999999999993</v>
       </c>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I54" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="J54" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>14015</v>
+        <v>12128</v>
       </c>
       <c r="B55" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" ca="1" si="13"/>
@@ -3485,15 +3485,15 @@
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>3.9</v>
+        <v>3.7249999999999996</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -3515,69 +3515,69 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12871</v>
+        <v>15044</v>
       </c>
       <c r="B56" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9.3000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.375</v>
+        <v>5.3</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I56" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J56" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13523</v>
+        <v>13615</v>
       </c>
       <c r="B57" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7750000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -3599,73 +3599,73 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13605</v>
+        <v>15757</v>
       </c>
       <c r="B58" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9.1999999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>5.9</v>
+        <v>0.6</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0.2</v>
+        <v>7.8</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5.375</v>
+        <v>5.5749999999999993</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H58" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J58" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13207</v>
+        <v>14694</v>
       </c>
       <c r="B59" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8.8000000000000007</v>
+        <v>6.3</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4.4000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3250000000000002</v>
+        <v>3.65</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I59" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J59" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3683,73 +3683,73 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>15457</v>
+        <v>14601</v>
       </c>
       <c r="B60" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8.4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3250000000000002</v>
+        <v>6.6</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H60" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I60" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J60" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13427</v>
+        <v>13407</v>
       </c>
       <c r="B61" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="C61" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4.4000000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6.65</v>
+        <v>6.2250000000000005</v>
       </c>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H61" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="I61" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J61" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3767,115 +3767,115 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13948</v>
+        <v>12417</v>
       </c>
       <c r="B62" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="C62" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5.55</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I62" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="J62" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12750</v>
+        <v>12321</v>
       </c>
       <c r="B63" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="C63" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5</v>
+        <v>6.125</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I63" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="J63" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>15176</v>
+        <v>12140</v>
       </c>
       <c r="B64" s="4">
         <f t="shared" ref="B64:D83" ca="1" si="14">ROUND(RAND()*(0-10)+10,1)</f>
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
       <c r="C64" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8.4</v>
+        <v>0.9</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>3.9</v>
+        <v>6.7</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="F64" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0499999999999989</v>
+        <v>5.7249999999999996</v>
       </c>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H64" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="I64" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J64" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3893,157 +3893,157 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>14930</v>
+        <v>12309</v>
       </c>
       <c r="B65" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>1.5</v>
+        <v>8.6</v>
       </c>
       <c r="C65" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F65" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5.1499999999999995</v>
+        <v>6.25</v>
       </c>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H65" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I65" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J65" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>13593</v>
+        <v>13197</v>
       </c>
       <c r="B66" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C66" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="F66" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5.0999999999999996</v>
+        <v>7.9499999999999993</v>
       </c>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H66" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I66" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="J66" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>12125</v>
+        <v>14967</v>
       </c>
       <c r="B67" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>1.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C67" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="F67" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>4.8250000000000002</v>
+        <v>7.2750000000000004</v>
       </c>
       <c r="G67" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H67" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I67" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J67" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="4">
         <f t="shared" ref="A68:A103" ca="1" si="15">RANDBETWEEN(12000,16000)</f>
-        <v>15916</v>
+        <v>12681</v>
       </c>
       <c r="B68" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C68" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="4">
         <f t="shared" ref="E68:E103" ca="1" si="16">ROUND(RAND()*(5-10)+10,1)</f>
-        <v>8.1</v>
+        <v>6.1</v>
       </c>
       <c r="F68" s="4">
         <f t="shared" ref="F68:F99" ca="1" si="17">AVERAGE(B68:E68)</f>
-        <v>3.7</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="I68" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J68" s="4" t="str">
         <f t="shared" ref="J68:J103" ca="1" si="18">IF(AND(G68&gt;=6,G68&lt;=8),"SALISTE MAS O MENOS",IF(G68&gt;=9,"SOBRESALIENTE","PESIMO"))</f>
@@ -4061,73 +4061,73 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15825</v>
+        <v>13743</v>
       </c>
       <c r="B69" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="C69" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="F69" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5.2750000000000004</v>
+        <v>5.7250000000000005</v>
       </c>
       <c r="G69" s="4">
         <f t="shared" ref="G69:G103" ca="1" si="19">ROUND(F69,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H69" s="4" t="str">
         <f t="shared" ref="H69:H103" ca="1" si="20">IF(G69&lt;=5,"NA","APROBADO")</f>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I69" s="4">
         <f t="shared" ref="I69:I103" ca="1" si="21">IF(G69=10,G69,IF(G69&gt;=8,G69+0.5,IF(G69&gt;=6,G69,G69-0.5)))</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J69" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15213</v>
+        <v>13284</v>
       </c>
       <c r="B70" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="C70" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.3</v>
+        <v>4.2</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="E70" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="F70" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>4.125</v>
+        <v>5.0250000000000004</v>
       </c>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H70" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="I70" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J70" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -4145,73 +4145,73 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>14271</v>
+        <v>13840</v>
       </c>
       <c r="B71" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>6.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C71" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>1.7</v>
+        <v>9.1</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="E71" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F71" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5.0500000000000007</v>
+        <v>8.0749999999999993</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H71" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="J71" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>14222</v>
+        <v>13054</v>
       </c>
       <c r="B72" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="C72" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9.3000000000000007</v>
+        <v>5.3</v>
       </c>
       <c r="E72" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>9.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="F72" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>6.8</v>
+        <v>6.125</v>
       </c>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H72" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="I72" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J72" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -4229,31 +4229,31 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15493</v>
+        <v>14283</v>
       </c>
       <c r="B73" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="C73" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9.3000000000000007</v>
+        <v>6.9</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="E73" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>9.6</v>
+        <v>5.2</v>
       </c>
       <c r="F73" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>7.1750000000000007</v>
+        <v>5.5249999999999995</v>
       </c>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H73" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="I73" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J73" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -4271,31 +4271,31 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15204</v>
+        <v>14903</v>
       </c>
       <c r="B74" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="C74" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4.0999999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8.3000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F74" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>7.6</v>
+        <v>6.3500000000000005</v>
       </c>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H74" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="I74" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="J74" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -4313,31 +4313,31 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>13634</v>
+        <v>12943</v>
       </c>
       <c r="B75" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="C75" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>3.6</v>
+        <v>8.6</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="F75" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5.9</v>
+        <v>8.1</v>
       </c>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H75" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I75" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="J75" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -4355,73 +4355,73 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12905</v>
+        <v>15141</v>
       </c>
       <c r="B76" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2.1</v>
+        <v>9.1</v>
       </c>
       <c r="C76" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="F76" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3250000000000002</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H76" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I76" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="J76" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12821</v>
+        <v>15327</v>
       </c>
       <c r="B77" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>1.8</v>
+        <v>8.6</v>
       </c>
       <c r="C77" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2.2000000000000002</v>
+        <v>9.1</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9.6999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>8.8000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="F77" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5.625</v>
+        <v>8.35</v>
       </c>
       <c r="G77" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H77" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="I77" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="J77" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -4439,27 +4439,27 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15772</v>
+        <v>12298</v>
       </c>
       <c r="B78" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>3.4</v>
+        <v>6.9</v>
       </c>
       <c r="C78" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8.1999999999999993</v>
+        <v>5</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
       <c r="F78" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5.875</v>
+        <v>6.1</v>
       </c>
       <c r="G78" s="4">
         <f t="shared" ca="1" si="19"/>
@@ -4481,153 +4481,153 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>14535</v>
+        <v>14880</v>
       </c>
       <c r="B79" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="C79" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="E79" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6.7</v>
+        <v>8.9</v>
       </c>
       <c r="F79" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>6.2749999999999995</v>
+        <v>5.2750000000000004</v>
       </c>
       <c r="G79" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H79" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I79" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J79" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12668</v>
+        <v>14737</v>
       </c>
       <c r="B80" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>1.1000000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="C80" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.2</v>
+        <v>7.1</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="F80" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>3.5249999999999999</v>
+        <v>7.55</v>
       </c>
       <c r="G80" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H80" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I80" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="J80" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15842</v>
+        <v>12611</v>
       </c>
       <c r="B81" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="C81" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E81" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6.2</v>
+        <v>9.1</v>
       </c>
       <c r="F81" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8499999999999996</v>
+        <v>7.0500000000000007</v>
       </c>
       <c r="G81" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H81" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I81" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J81" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12812</v>
+        <v>12332</v>
       </c>
       <c r="B82" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C82" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="F82" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>3.65</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="G82" s="4">
         <f t="shared" ca="1" si="19"/>
@@ -4649,27 +4649,27 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15944</v>
+        <v>14041</v>
       </c>
       <c r="B83" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C83" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9.8000000000000007</v>
+        <v>2.6</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F83" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5.8750000000000009</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="G83" s="4">
         <f t="shared" ca="1" si="19"/>
@@ -4691,73 +4691,73 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15333</v>
+        <v>15050</v>
       </c>
       <c r="B84" s="4">
         <f t="shared" ref="B84:D103" ca="1" si="22">ROUND(RAND()*(0-10)+10,1)</f>
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="C84" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>1.5</v>
+        <v>9.1</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="F84" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>2.6</v>
+        <v>6.1749999999999998</v>
       </c>
       <c r="G84" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H84" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I84" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="J84" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>14747</v>
+        <v>12745</v>
       </c>
       <c r="B85" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>0.4</v>
+        <v>6.2</v>
       </c>
       <c r="C85" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>1.1000000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="F85" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>3.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G85" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H85" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="I85" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J85" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -4775,157 +4775,157 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15247</v>
+        <v>15090</v>
       </c>
       <c r="B86" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>4.5999999999999996</v>
+        <v>6.5</v>
       </c>
       <c r="C86" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="F86" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="G86" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H86" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I86" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="J86" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>14818</v>
+        <v>12752</v>
       </c>
       <c r="B87" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="C87" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>9.1</v>
+        <v>2.7</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="F87" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>8.4500000000000011</v>
+        <v>5.375</v>
       </c>
       <c r="G87" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H87" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I87" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="J87" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15462</v>
+        <v>14020</v>
       </c>
       <c r="B88" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="C88" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>2.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="F88" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>4.1999999999999993</v>
+        <v>5.5500000000000007</v>
       </c>
       <c r="G88" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H88" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I88" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="J88" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12900</v>
+        <v>15047</v>
       </c>
       <c r="B89" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>7.3</v>
+        <v>9.9</v>
       </c>
       <c r="C89" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="F89" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5.55</v>
+        <v>7.625</v>
       </c>
       <c r="G89" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H89" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="I89" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="J89" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -4943,115 +4943,115 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>13865</v>
+        <v>14712</v>
       </c>
       <c r="B90" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="C90" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="F90" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5.35</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="G90" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H90" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I90" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J90" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12574</v>
+        <v>12835</v>
       </c>
       <c r="B91" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>2.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C91" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>7.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F91" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>6.2250000000000005</v>
+        <v>4.2249999999999996</v>
       </c>
       <c r="G91" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H91" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I91" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J91" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12557</v>
+        <v>14181</v>
       </c>
       <c r="B92" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C92" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="D92" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>6.1</v>
+        <v>0.2</v>
       </c>
       <c r="E92" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="F92" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>4.75</v>
+        <v>4.1499999999999995</v>
       </c>
       <c r="G92" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H92" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="I92" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J92" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5069,27 +5069,27 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12432</v>
+        <v>13153</v>
       </c>
       <c r="B93" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="C93" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="D93" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="E93" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>5.4</v>
+        <v>7.7</v>
       </c>
       <c r="F93" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5.4</v>
+        <v>5.0750000000000002</v>
       </c>
       <c r="G93" s="4">
         <f t="shared" ca="1" si="19"/>
@@ -5111,103 +5111,103 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15855</v>
+        <v>12850</v>
       </c>
       <c r="B94" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0999999999999996</v>
+        <v>1.4</v>
       </c>
       <c r="C94" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>3.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D94" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>6.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>9.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F94" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>6.2</v>
+        <v>3.875</v>
       </c>
       <c r="G94" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H94" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I94" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J94" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12250</v>
+        <v>12141</v>
       </c>
       <c r="B95" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C95" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>6.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D95" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>4.5</v>
+        <v>9.1</v>
       </c>
       <c r="E95" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>5.0999999999999996</v>
+        <v>7.9</v>
       </c>
       <c r="F95" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>4.7750000000000004</v>
+        <v>6.9249999999999989</v>
       </c>
       <c r="G95" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H95" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I95" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J95" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>14038</v>
+        <v>15266</v>
       </c>
       <c r="B96" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>9.1999999999999993</v>
+        <v>3.8</v>
       </c>
       <c r="C96" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>8.8000000000000007</v>
+        <v>2.9</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -5215,49 +5215,49 @@
       </c>
       <c r="F96" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>6.15</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="G96" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H96" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I96" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J96" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>13353</v>
+        <v>13968</v>
       </c>
       <c r="B97" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="C97" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>4.4000000000000004</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="F97" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>5.9750000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="G97" s="4">
         <f t="shared" ca="1" si="19"/>
@@ -5279,19 +5279,19 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>14547</v>
+        <v>15081</v>
       </c>
       <c r="B98" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C98" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="E98" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -5299,11 +5299,11 @@
       </c>
       <c r="F98" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>4.9750000000000005</v>
+        <v>4.4749999999999996</v>
       </c>
       <c r="G98" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H98" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="I98" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J98" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5321,115 +5321,115 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15936</v>
+        <v>12585</v>
       </c>
       <c r="B99" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>4.0999999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="C99" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3000000000000007</v>
+        <v>4.5</v>
       </c>
       <c r="E99" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2</v>
+        <v>8.4</v>
       </c>
       <c r="F99" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>6.6499999999999995</v>
+        <v>5.2249999999999996</v>
       </c>
       <c r="G99" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H99" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I99" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J99" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>15005</v>
+        <v>14291</v>
       </c>
       <c r="B100" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="C100" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>9.6</v>
+        <v>1.2</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>5.0999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>8.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F100" s="4">
         <f t="shared" ref="F100:F103" ca="1" si="23">AVERAGE(B100:E100)</f>
-        <v>7.5</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="G100" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H100" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I100" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="J100" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12178</v>
+        <v>14275</v>
       </c>
       <c r="B101" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="C101" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D101" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="F101" s="4">
         <f t="shared" ca="1" si="23"/>
-        <v>6.4499999999999993</v>
+        <v>6.8250000000000002</v>
       </c>
       <c r="G101" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H101" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I101" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J101" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -5447,85 +5447,85 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>12809</v>
+        <v>15038</v>
       </c>
       <c r="B102" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>8.8000000000000007</v>
+        <v>0.6</v>
       </c>
       <c r="C102" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>3.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D102" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F102" s="4">
         <f t="shared" ca="1" si="23"/>
-        <v>5.2249999999999996</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="G102" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H102" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>NA</v>
+        <v>APROBADO</v>
       </c>
       <c r="I102" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="J102" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>PESIMO</v>
+        <v>SALISTE MAS O MENOS</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>14327</v>
+        <v>14254</v>
       </c>
       <c r="B103" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C103" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="D103" s="4">
         <f t="shared" ca="1" si="22"/>
-        <v>7.3</v>
+        <v>0.1</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="F103" s="4">
         <f t="shared" ca="1" si="23"/>
-        <v>6.125</v>
+        <v>4.1749999999999998</v>
       </c>
       <c r="G103" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H103" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>APROBADO</v>
+        <v>NA</v>
       </c>
       <c r="I103" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J103" s="4" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>SALISTE MAS O MENOS</v>
+        <v>PESIMO</v>
       </c>
     </row>
   </sheetData>
